--- a/data/fuzzy_rules/social_interpretation3/ling_var_multiple_ref2.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/ling_var_multiple_ref2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -321,6 +321,12 @@
   </si>
   <si>
     <t>DefaultVal</t>
+  </si>
+  <si>
+    <t>PERSONAL_VOCABULARY</t>
+  </si>
+  <si>
+    <t>The person is using a vocabulary that indicates a personal or private conversation</t>
   </si>
 </sst>
 </file>
@@ -638,16 +644,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="56.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -687,7 +694,7 @@
         <v>26</v>
       </c>
       <c r="F2">
-        <v>50</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1547,6 +1554,26 @@
         <v>91</v>
       </c>
       <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>99</v>
+      </c>
+      <c r="B46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46">
         <v>0</v>
       </c>
     </row>

--- a/data/fuzzy_rules/social_interpretation3/ling_var_multiple_ref2.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/ling_var_multiple_ref2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddellanna\surfdrive\PostDoc\Notes\NormsSAR\NormativeBDISAR\data\fuzzy_rules\social_interpretation3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ddellanna\surfdrive\PostDoc\Notes\NormsSAR\NOSAR\data\fuzzy_rules\social_interpretation3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -327,6 +327,21 @@
   </si>
   <si>
     <t>The person is using a vocabulary that indicates a personal or private conversation</t>
+  </si>
+  <si>
+    <t>ROLE_SUBORDINATE</t>
+  </si>
+  <si>
+    <t>The role of the robot is subordinate</t>
+  </si>
+  <si>
+    <t>SPEED_VOICE</t>
+  </si>
+  <si>
+    <t>The speed of the voice</t>
+  </si>
+  <si>
+    <t>low_speed%%mid_speed%%high_speed</t>
   </si>
 </sst>
 </file>
@@ -644,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -694,7 +709,7 @@
         <v>26</v>
       </c>
       <c r="F2">
-        <v>70</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1575,6 +1590,46 @@
       </c>
       <c r="F46">
         <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>103</v>
+      </c>
+      <c r="B48" t="s">
+        <v>104</v>
+      </c>
+      <c r="C48">
+        <v>50</v>
+      </c>
+      <c r="D48">
+        <v>400</v>
+      </c>
+      <c r="E48" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/data/fuzzy_rules/social_interpretation3/ling_var_multiple_ref2.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/ling_var_multiple_ref2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="109">
   <si>
     <t>Name</t>
   </si>
@@ -342,6 +342,15 @@
   </si>
   <si>
     <t>low_speed%%mid_speed%%high_speed</t>
+  </si>
+  <si>
+    <t>TONE_VOICE</t>
+  </si>
+  <si>
+    <t>The tone of the voice</t>
+  </si>
+  <si>
+    <t>low_tone%%mid_tone%%high_tone</t>
   </si>
 </sst>
 </file>
@@ -659,10 +668,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F48"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,7 +1558,7 @@
         <v>91</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1629,6 +1638,26 @@
         <v>105</v>
       </c>
       <c r="F48">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49">
+        <v>50</v>
+      </c>
+      <c r="D49">
+        <v>150</v>
+      </c>
+      <c r="E49" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49">
         <v>100</v>
       </c>
     </row>

--- a/data/fuzzy_rules/social_interpretation3/ling_var_multiple_ref2.xlsx
+++ b/data/fuzzy_rules/social_interpretation3/ling_var_multiple_ref2.xlsx
@@ -670,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,7 +718,7 @@
         <v>26</v>
       </c>
       <c r="F2">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1638,7 +1638,7 @@
         <v>105</v>
       </c>
       <c r="F48">
-        <v>100</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
